--- a/excels/英雄表.xlsx
+++ b/excels/英雄表.xlsx
@@ -1341,7 +1341,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
@@ -1749,31 +1749,31 @@
         <v>112</v>
       </c>
       <c r="AA3" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB3" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC3" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AD3" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AE3" s="4">
         <v>0.3</v>
       </c>
       <c r="AF3" s="4">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="AI3" s="5" t="s">
         <v>113</v>
       </c>
       <c r="AJ3" s="5">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AK3" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL3" s="5">
         <v>0</v>

--- a/excels/英雄表.xlsx
+++ b/excels/英雄表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="23025" windowHeight="4560"/>
   </bookViews>
   <sheets>
     <sheet name="heroes" sheetId="1" r:id="rId1"/>
@@ -1337,11 +1337,11 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y7" sqref="Y7"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
@@ -1791,7 +1791,7 @@
         <v>114</v>
       </c>
       <c r="AQ3" s="6">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="AR3" s="6">
         <v>0.8</v>
